--- a/bh3/560214935434942654_2021-08-18_16-00-04.xlsx
+++ b/bh3/560214935434942654_2021-08-18_16-00-04.xlsx
@@ -2757,7 +2757,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -2982,7 +2982,7 @@
         </is>
       </c>
       <c r="I36" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
@@ -3215,7 +3215,7 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -3637,7 +3637,7 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -5147,7 +5147,7 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
@@ -5372,7 +5372,7 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
@@ -6260,7 +6260,7 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
@@ -6773,7 +6773,7 @@
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
@@ -7365,7 +7365,7 @@
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
@@ -7578,7 +7578,7 @@
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
@@ -8758,7 +8758,7 @@
         </is>
       </c>
       <c r="I115" t="n">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="J115" t="inlineStr">
         <is>
@@ -14928,7 +14928,7 @@
         </is>
       </c>
       <c r="I199" t="n">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="J199" t="inlineStr">
         <is>
@@ -16094,7 +16094,7 @@
         </is>
       </c>
       <c r="I215" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J215" t="inlineStr">
         <is>
@@ -17207,7 +17207,7 @@
         </is>
       </c>
       <c r="I230" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J230" t="inlineStr">
         <is>
@@ -17424,7 +17424,7 @@
         </is>
       </c>
       <c r="I233" t="n">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="J233" t="inlineStr">
         <is>
@@ -17709,7 +17709,7 @@
       </c>
       <c r="J236" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K236" t="inlineStr">
@@ -18087,7 +18087,7 @@
       </c>
       <c r="J241" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K241" t="inlineStr">
@@ -18250,7 +18250,7 @@
       </c>
       <c r="J243" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K243" t="inlineStr">
@@ -18329,7 +18329,7 @@
       </c>
       <c r="J244" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K244" t="inlineStr">
@@ -18404,7 +18404,7 @@
         </is>
       </c>
       <c r="I245" t="n">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="J245" t="inlineStr">
         <is>
@@ -18483,7 +18483,7 @@
       </c>
       <c r="J246" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K246" t="inlineStr">
@@ -18550,7 +18550,7 @@
       </c>
       <c r="J247" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K247" t="inlineStr">
@@ -18629,7 +18629,7 @@
       </c>
       <c r="J248" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K248" t="inlineStr">
@@ -18708,7 +18708,7 @@
       </c>
       <c r="J249" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K249" t="inlineStr">
@@ -18854,7 +18854,7 @@
       </c>
       <c r="J251" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K251" t="inlineStr">
@@ -18933,7 +18933,7 @@
       </c>
       <c r="J252" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K252" t="inlineStr">
@@ -19004,7 +19004,7 @@
       </c>
       <c r="J253" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K253" t="inlineStr">
@@ -19083,7 +19083,7 @@
       </c>
       <c r="J254" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K254" t="inlineStr">
@@ -19162,7 +19162,7 @@
       </c>
       <c r="J255" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K255" t="inlineStr">
@@ -19237,7 +19237,7 @@
       </c>
       <c r="J256" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K256" t="inlineStr">

--- a/bh3/560214935434942654_2021-08-18_16-00-04.xlsx
+++ b/bh3/560214935434942654_2021-08-18_16-00-04.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -46,8 +48,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -419,6 +422,19 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="20" customWidth="1" min="17" max="17"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -539,10 +555,8 @@
           <t>5198370940</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2021-08-20 10:45:35</t>
-        </is>
+      <c r="H2" s="1" t="n">
+        <v>44428.44832175926</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -619,10 +633,8 @@
           <t>5198370940</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2021-08-20 08:32:42</t>
-        </is>
+      <c r="H3" s="1" t="n">
+        <v>44428.35604166667</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -690,10 +702,8 @@
           <t>5198660398</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2021-08-19 12:39:29</t>
-        </is>
+      <c r="H4" s="1" t="n">
+        <v>44427.52741898148</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -770,10 +780,8 @@
           <t>5198660398</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2021-08-19 10:46:56</t>
-        </is>
+      <c r="H5" s="1" t="n">
+        <v>44427.44925925926</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -837,10 +845,8 @@
           <t>5198391028</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2021-08-19 10:09:14</t>
-        </is>
+      <c r="H6" s="1" t="n">
+        <v>44427.4230787037</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -904,10 +910,8 @@
           <t>5198370940</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2021-08-19 10:06:36</t>
-        </is>
+      <c r="H7" s="1" t="n">
+        <v>44427.42125</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -984,10 +988,8 @@
           <t>5198287626</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2021-08-19 09:54:34</t>
-        </is>
+      <c r="H8" s="1" t="n">
+        <v>44427.41289351852</v>
       </c>
       <c r="I8" t="n">
         <v>1</v>
@@ -1047,10 +1049,8 @@
           <t>5198106121</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2021-08-19 09:25:15</t>
-        </is>
+      <c r="H9" s="1" t="n">
+        <v>44427.39253472222</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
@@ -1118,10 +1118,8 @@
           <t>5197706880</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2021-08-19 08:08:08</t>
-        </is>
+      <c r="H10" s="1" t="n">
+        <v>44427.33898148148</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1189,10 +1187,8 @@
           <t>5197703689</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2021-08-19 08:07:22</t>
-        </is>
+      <c r="H11" s="1" t="n">
+        <v>44427.33844907407</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1260,10 +1256,8 @@
           <t>5197286037</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2021-08-19 04:14:41</t>
-        </is>
+      <c r="H12" s="1" t="n">
+        <v>44427.17686342593</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1331,10 +1325,8 @@
           <t>5196977906</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2021-08-19 01:57:42</t>
-        </is>
+      <c r="H13" s="1" t="n">
+        <v>44427.08173611111</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1402,10 +1394,8 @@
           <t>5196976455</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2021-08-19 01:56:27</t>
-        </is>
+      <c r="H14" s="1" t="n">
+        <v>44427.08086805556</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1473,10 +1463,8 @@
           <t>5196964322</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2021-08-19 01:54:42</t>
-        </is>
+      <c r="H15" s="1" t="n">
+        <v>44427.07965277778</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1544,10 +1532,8 @@
           <t>5196966929</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2021-08-19 01:53:47</t>
-        </is>
+      <c r="H16" s="1" t="n">
+        <v>44427.0790162037</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1615,10 +1601,8 @@
           <t>5196957227</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2021-08-19 01:52:03</t>
-        </is>
+      <c r="H17" s="1" t="n">
+        <v>44427.0778125</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1686,10 +1670,8 @@
           <t>5196944665</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2021-08-19 01:50:07</t>
-        </is>
+      <c r="H18" s="1" t="n">
+        <v>44427.07646990741</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1757,10 +1739,8 @@
           <t>5196943465</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2021-08-19 01:49:08</t>
-        </is>
+      <c r="H19" s="1" t="n">
+        <v>44427.07578703704</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -1828,10 +1808,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2021-08-19 00:07:52</t>
-        </is>
+      <c r="H20" s="1" t="n">
+        <v>44427.00546296296</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -1894,10 +1872,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2021-08-19 00:07:46</t>
-        </is>
+      <c r="H21" s="1" t="n">
+        <v>44427.00539351852</v>
       </c>
       <c r="I21" t="n">
         <v>1</v>
@@ -1961,10 +1937,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2021-08-19 00:07:38</t>
-        </is>
+      <c r="H22" s="1" t="n">
+        <v>44427.00530092593</v>
       </c>
       <c r="I22" t="n">
         <v>1</v>
@@ -2024,10 +1998,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2021-08-19 00:07:34</t>
-        </is>
+      <c r="H23" s="1" t="n">
+        <v>44427.00525462963</v>
       </c>
       <c r="I23" t="n">
         <v>1</v>
@@ -2087,10 +2059,8 @@
           <t>5195842891</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2021-08-18 23:10:51</t>
-        </is>
+      <c r="H24" s="1" t="n">
+        <v>44426.96586805556</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2150,10 +2120,8 @@
           <t>5195251488</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2021-08-18 22:10:44</t>
-        </is>
+      <c r="H25" s="1" t="n">
+        <v>44426.92412037037</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2229,10 +2197,8 @@
           <t>5192573918</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2021-08-18 20:39:53</t>
-        </is>
+      <c r="H26" s="1" t="n">
+        <v>44426.86103009259</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2296,10 +2262,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2021-08-18 20:31:50</t>
-        </is>
+      <c r="H27" s="1" t="n">
+        <v>44426.85543981481</v>
       </c>
       <c r="I27" t="n">
         <v>1</v>
@@ -2368,10 +2332,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2021-08-18 20:13:09</t>
-        </is>
+      <c r="H28" s="1" t="n">
+        <v>44426.84246527778</v>
       </c>
       <c r="I28" t="n">
         <v>1</v>
@@ -2443,10 +2405,8 @@
           <t>5192032136</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>2021-08-18 20:09:09</t>
-        </is>
+      <c r="H29" s="1" t="n">
+        <v>44426.8396875</v>
       </c>
       <c r="I29" t="n">
         <v>1</v>
@@ -2518,10 +2478,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>2021-08-18 20:07:03</t>
-        </is>
+      <c r="H30" s="1" t="n">
+        <v>44426.83822916666</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2593,10 +2551,8 @@
           <t>5194073937</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>2021-08-18 20:02:29</t>
-        </is>
+      <c r="H31" s="1" t="n">
+        <v>44426.83505787037</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2668,10 +2624,8 @@
           <t>5194052381</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>2021-08-18 20:00:09</t>
-        </is>
+      <c r="H32" s="1" t="n">
+        <v>44426.8334375</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -2747,10 +2701,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>2021-08-18 19:58:32</t>
-        </is>
+      <c r="H33" s="1" t="n">
+        <v>44426.83231481481</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -2826,10 +2778,8 @@
           <t>5193774793</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>2021-08-18 19:30:31</t>
-        </is>
+      <c r="H34" s="1" t="n">
+        <v>44426.81285879629</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -2905,10 +2855,8 @@
           <t>5193752109</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2021-08-18 19:27:23</t>
-        </is>
+      <c r="H35" s="1" t="n">
+        <v>44426.81068287037</v>
       </c>
       <c r="I35" t="n">
         <v>1</v>
@@ -2976,10 +2924,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2021-08-18 19:12:14</t>
-        </is>
+      <c r="H36" s="1" t="n">
+        <v>44426.80016203703</v>
       </c>
       <c r="I36" t="n">
         <v>12</v>
@@ -3055,10 +3001,8 @@
           <t>5193589761</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2021-08-18 19:10:08</t>
-        </is>
+      <c r="H37" s="1" t="n">
+        <v>44426.7987037037</v>
       </c>
       <c r="I37" t="n">
         <v>1</v>
@@ -3126,10 +3070,8 @@
           <t>5192714761</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>2021-08-18 19:04:13</t>
-        </is>
+      <c r="H38" s="1" t="n">
+        <v>44426.79459490741</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3205,10 +3147,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>2021-08-18 19:03:34</t>
-        </is>
+      <c r="H39" s="1" t="n">
+        <v>44426.79414351852</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3276,10 +3216,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2021-08-18 19:02:59</t>
-        </is>
+      <c r="H40" s="1" t="n">
+        <v>44426.79373842593</v>
       </c>
       <c r="I40" t="n">
         <v>1</v>
@@ -3347,10 +3285,8 @@
           <t>5192714761</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>2021-08-18 19:00:08</t>
-        </is>
+      <c r="H41" s="1" t="n">
+        <v>44426.79175925926</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3426,10 +3362,8 @@
           <t>5192937190</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>2021-08-18 18:56:41</t>
-        </is>
+      <c r="H42" s="1" t="n">
+        <v>44426.78936342592</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3493,10 +3427,8 @@
           <t>5193413334</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>2021-08-18 18:56:24</t>
-        </is>
+      <c r="H43" s="1" t="n">
+        <v>44426.78916666667</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3560,10 +3492,8 @@
           <t>5193055833</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>2021-08-18 18:56:19</t>
-        </is>
+      <c r="H44" s="1" t="n">
+        <v>44426.7891087963</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -3627,10 +3557,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>2021-08-18 18:55:45</t>
-        </is>
+      <c r="H45" s="1" t="n">
+        <v>44426.78871527778</v>
       </c>
       <c r="I45" t="n">
         <v>1</v>
@@ -3694,10 +3622,8 @@
           <t>5193413334</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>2021-08-18 18:51:46</t>
-        </is>
+      <c r="H46" s="1" t="n">
+        <v>44426.78594907407</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -3765,10 +3691,8 @@
           <t>5193372810</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>2021-08-18 18:47:20</t>
-        </is>
+      <c r="H47" s="1" t="n">
+        <v>44426.78287037037</v>
       </c>
       <c r="I47" t="n">
         <v>2</v>
@@ -3840,10 +3764,8 @@
           <t>5192714761</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>2021-08-18 18:44:54</t>
-        </is>
+      <c r="H48" s="1" t="n">
+        <v>44426.78118055555</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
@@ -3911,10 +3833,8 @@
           <t>5192714761</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>2021-08-18 18:42:17</t>
-        </is>
+      <c r="H49" s="1" t="n">
+        <v>44426.77936342593</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
@@ -3982,10 +3902,8 @@
           <t>5193324455</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>2021-08-18 18:42:04</t>
-        </is>
+      <c r="H50" s="1" t="n">
+        <v>44426.77921296296</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
@@ -4061,10 +3979,8 @@
           <t>5192714761</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>2021-08-18 18:36:55</t>
-        </is>
+      <c r="H51" s="1" t="n">
+        <v>44426.77563657407</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
@@ -4132,10 +4048,8 @@
           <t>5192714761</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>2021-08-18 18:34:28</t>
-        </is>
+      <c r="H52" s="1" t="n">
+        <v>44426.77393518519</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
@@ -4211,10 +4125,8 @@
           <t>5193250569</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>2021-08-18 18:34:02</t>
-        </is>
+      <c r="H53" s="1" t="n">
+        <v>44426.77363425926</v>
       </c>
       <c r="I53" t="n">
         <v>3</v>
@@ -4282,10 +4194,8 @@
           <t>5193200166</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>2021-08-18 18:28:49</t>
-        </is>
+      <c r="H54" s="1" t="n">
+        <v>44426.77001157407</v>
       </c>
       <c r="I54" t="n">
         <v>2</v>
@@ -4349,10 +4259,8 @@
           <t>5193169147</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>2021-08-18 18:26:03</t>
-        </is>
+      <c r="H55" s="1" t="n">
+        <v>44426.76809027778</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
@@ -4424,10 +4332,8 @@
           <t>5192714761</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>2021-08-18 18:25:29</t>
-        </is>
+      <c r="H56" s="1" t="n">
+        <v>44426.76769675926</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
@@ -4495,10 +4401,8 @@
           <t>5193083680</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>2021-08-18 18:17:15</t>
-        </is>
+      <c r="H57" s="1" t="n">
+        <v>44426.76197916667</v>
       </c>
       <c r="I57" t="n">
         <v>2</v>
@@ -4558,10 +4462,8 @@
           <t>5193055833</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>2021-08-18 18:13:34</t>
-        </is>
+      <c r="H58" s="1" t="n">
+        <v>44426.75942129629</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
@@ -4629,10 +4531,8 @@
           <t>5193036997</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>2021-08-18 18:12:22</t>
-        </is>
+      <c r="H59" s="1" t="n">
+        <v>44426.75858796296</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
@@ -4700,10 +4600,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>2021-08-18 18:11:08</t>
-        </is>
+      <c r="H60" s="1" t="n">
+        <v>44426.75773148148</v>
       </c>
       <c r="I60" t="n">
         <v>2</v>
@@ -4767,10 +4665,8 @@
           <t>5193002468</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>2021-08-18 18:08:07</t>
-        </is>
+      <c r="H61" s="1" t="n">
+        <v>44426.75563657407</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
@@ -4838,10 +4734,8 @@
           <t>5192995059</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>2021-08-18 18:06:59</t>
-        </is>
+      <c r="H62" s="1" t="n">
+        <v>44426.75484953704</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
@@ -4909,10 +4803,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>2021-08-18 18:04:20</t>
-        </is>
+      <c r="H63" s="1" t="n">
+        <v>44426.75300925926</v>
       </c>
       <c r="I63" t="n">
         <v>15</v>
@@ -4990,10 +4882,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>2021-08-18 18:02:51</t>
-        </is>
+      <c r="H64" s="1" t="n">
+        <v>44426.75197916666</v>
       </c>
       <c r="I64" t="n">
         <v>4</v>
@@ -5070,10 +4960,8 @@
           <t>5192937190</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>2021-08-18 18:01:32</t>
-        </is>
+      <c r="H65" s="1" t="n">
+        <v>44426.75106481482</v>
       </c>
       <c r="I65" t="n">
         <v>3</v>
@@ -5137,10 +5025,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>2021-08-18 17:57:34</t>
-        </is>
+      <c r="H66" s="1" t="n">
+        <v>44426.74831018518</v>
       </c>
       <c r="I66" t="n">
         <v>1</v>
@@ -5216,10 +5102,8 @@
           <t>5192896167</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>2021-08-18 17:56:58</t>
-        </is>
+      <c r="H67" s="1" t="n">
+        <v>44426.74789351852</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
@@ -5295,10 +5179,8 @@
           <t>5192244644</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>2021-08-18 17:56:55</t>
-        </is>
+      <c r="H68" s="1" t="n">
+        <v>44426.7478587963</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
@@ -5362,10 +5244,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>2021-08-18 17:55:24</t>
-        </is>
+      <c r="H69" s="1" t="n">
+        <v>44426.74680555556</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
@@ -5433,10 +5313,8 @@
           <t>5192868263</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>2021-08-18 17:54:05</t>
-        </is>
+      <c r="H70" s="1" t="n">
+        <v>44426.7458912037</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
@@ -5508,10 +5386,8 @@
           <t>5192841718</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>2021-08-18 17:51:27</t>
-        </is>
+      <c r="H71" s="1" t="n">
+        <v>44426.7440625</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
@@ -5591,10 +5467,8 @@
           <t>5192825620</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>2021-08-18 17:49:20</t>
-        </is>
+      <c r="H72" s="1" t="n">
+        <v>44426.74259259259</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
@@ -5654,10 +5528,8 @@
           <t>5192815177</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>2021-08-18 17:47:34</t>
-        </is>
+      <c r="H73" s="1" t="n">
+        <v>44426.74136574074</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
@@ -5729,10 +5601,8 @@
           <t>5192808732</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>2021-08-18 17:47:32</t>
-        </is>
+      <c r="H74" s="1" t="n">
+        <v>44426.74134259259</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
@@ -5808,10 +5678,8 @@
           <t>5192803391</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>2021-08-18 17:46:56</t>
-        </is>
+      <c r="H75" s="1" t="n">
+        <v>44426.74092592593</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
@@ -5887,10 +5755,8 @@
           <t>5192800575</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>2021-08-18 17:45:55</t>
-        </is>
+      <c r="H76" s="1" t="n">
+        <v>44426.74021990741</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
@@ -5966,10 +5832,8 @@
           <t>5192793353</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>2021-08-18 17:45:50</t>
-        </is>
+      <c r="H77" s="1" t="n">
+        <v>44426.74016203704</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
@@ -6041,10 +5905,8 @@
           <t>5192032136</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>2021-08-18 17:44:09</t>
-        </is>
+      <c r="H78" s="1" t="n">
+        <v>44426.73899305556</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
@@ -6104,10 +5966,8 @@
           <t>5192573918</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>2021-08-18 17:40:29</t>
-        </is>
+      <c r="H79" s="1" t="n">
+        <v>44426.73644675926</v>
       </c>
       <c r="I79" t="n">
         <v>1</v>
@@ -6171,10 +6031,8 @@
           <t>5192738017</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>2021-08-18 17:39:30</t>
-        </is>
+      <c r="H80" s="1" t="n">
+        <v>44426.73576388889</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
@@ -6250,10 +6108,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>2021-08-18 17:38:29</t>
-        </is>
+      <c r="H81" s="1" t="n">
+        <v>44426.73505787037</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
@@ -6329,10 +6185,8 @@
           <t>5192724476</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>2021-08-18 17:38:12</t>
-        </is>
+      <c r="H82" s="1" t="n">
+        <v>44426.73486111111</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
@@ -6408,10 +6262,8 @@
           <t>5192714761</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>2021-08-18 17:36:59</t>
-        </is>
+      <c r="H83" s="1" t="n">
+        <v>44426.73401620371</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
@@ -6487,10 +6339,8 @@
           <t>5192373603</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>2021-08-18 17:35:28</t>
-        </is>
+      <c r="H84" s="1" t="n">
+        <v>44426.73296296296</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
@@ -6554,10 +6404,8 @@
           <t>5192573918</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>2021-08-18 17:34:26</t>
-        </is>
+      <c r="H85" s="1" t="n">
+        <v>44426.73224537037</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
@@ -6621,10 +6469,8 @@
           <t>5192113089</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>2021-08-18 17:33:57</t>
-        </is>
+      <c r="H86" s="1" t="n">
+        <v>44426.73190972222</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
@@ -6696,10 +6542,8 @@
           <t>5192373603</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>2021-08-18 17:31:41</t>
-        </is>
+      <c r="H87" s="1" t="n">
+        <v>44426.73033564815</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
@@ -6763,10 +6607,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>2021-08-18 17:30:27</t>
-        </is>
+      <c r="H88" s="1" t="n">
+        <v>44426.72947916666</v>
       </c>
       <c r="I88" t="n">
         <v>1</v>
@@ -6840,10 +6682,8 @@
           <t>5192244644</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>2021-08-18 17:29:59</t>
-        </is>
+      <c r="H89" s="1" t="n">
+        <v>44426.72915509259</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
@@ -6919,10 +6759,8 @@
           <t>5192373603</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>2021-08-18 17:29:54</t>
-        </is>
+      <c r="H90" s="1" t="n">
+        <v>44426.72909722223</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
@@ -6986,10 +6824,8 @@
           <t>5192651460</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>2021-08-18 17:29:13</t>
-        </is>
+      <c r="H91" s="1" t="n">
+        <v>44426.72862268519</v>
       </c>
       <c r="I91" t="n">
         <v>1</v>
@@ -7059,10 +6895,8 @@
           <t>5192373603</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>2021-08-18 17:29:02</t>
-        </is>
+      <c r="H92" s="1" t="n">
+        <v>44426.72849537037</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
@@ -7134,10 +6968,8 @@
           <t>5192373603</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>2021-08-18 17:28:36</t>
-        </is>
+      <c r="H93" s="1" t="n">
+        <v>44426.72819444445</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
@@ -7202,10 +7034,8 @@
           <t>5192373603</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>2021-08-18 17:27:07</t>
-        </is>
+      <c r="H94" s="1" t="n">
+        <v>44426.72716435185</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
@@ -7277,10 +7107,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>2021-08-18 17:23:27</t>
-        </is>
+      <c r="H95" s="1" t="n">
+        <v>44426.72461805555</v>
       </c>
       <c r="I95" t="n">
         <v>7</v>
@@ -7355,10 +7183,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>2021-08-18 17:23:23</t>
-        </is>
+      <c r="H96" s="1" t="n">
+        <v>44426.72457175926</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
@@ -7434,10 +7260,8 @@
           <t>5192573918</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>2021-08-18 17:20:59</t>
-        </is>
+      <c r="H97" s="1" t="n">
+        <v>44426.7229050926</v>
       </c>
       <c r="I97" t="n">
         <v>2</v>
@@ -7501,10 +7325,8 @@
           <t>5191973083</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>2021-08-18 17:20:02</t>
-        </is>
+      <c r="H98" s="1" t="n">
+        <v>44426.72224537037</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
@@ -7568,10 +7390,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>2021-08-18 17:18:08</t>
-        </is>
+      <c r="H99" s="1" t="n">
+        <v>44426.72092592593</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
@@ -7643,10 +7463,8 @@
           <t>5192373603</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>2021-08-18 17:16:57</t>
-        </is>
+      <c r="H100" s="1" t="n">
+        <v>44426.72010416666</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
@@ -7710,10 +7528,8 @@
           <t>5192540838</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>2021-08-18 17:16:25</t>
-        </is>
+      <c r="H101" s="1" t="n">
+        <v>44426.71973379629</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
@@ -7777,10 +7593,8 @@
           <t>5191973083</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>2021-08-18 17:15:25</t>
-        </is>
+      <c r="H102" s="1" t="n">
+        <v>44426.71903935185</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
@@ -7852,10 +7666,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>2021-08-18 17:14:45</t>
-        </is>
+      <c r="H103" s="1" t="n">
+        <v>44426.71857638889</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
@@ -7919,10 +7731,8 @@
           <t>5192244644</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>2021-08-18 17:14:43</t>
-        </is>
+      <c r="H104" s="1" t="n">
+        <v>44426.71855324074</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
@@ -7990,10 +7800,8 @@
           <t>5192113089</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>2021-08-18 17:14:01</t>
-        </is>
+      <c r="H105" s="1" t="n">
+        <v>44426.71806712963</v>
       </c>
       <c r="I105" t="n">
         <v>2</v>
@@ -8065,10 +7873,8 @@
           <t>5192005627</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>2021-08-18 17:13:13</t>
-        </is>
+      <c r="H106" s="1" t="n">
+        <v>44426.71751157408</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
@@ -8140,10 +7946,8 @@
           <t>5192494868</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>2021-08-18 17:12:23</t>
-        </is>
+      <c r="H107" s="1" t="n">
+        <v>44426.71693287037</v>
       </c>
       <c r="I107" t="n">
         <v>1</v>
@@ -8219,10 +8023,8 @@
           <t>5192005627</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>2021-08-18 17:12:15</t>
-        </is>
+      <c r="H108" s="1" t="n">
+        <v>44426.71684027778</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
@@ -8298,10 +8100,8 @@
           <t>5192413625</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>2021-08-18 17:10:26</t>
-        </is>
+      <c r="H109" s="1" t="n">
+        <v>44426.7155787037</v>
       </c>
       <c r="I109" t="n">
         <v>1</v>
@@ -8365,10 +8165,8 @@
           <t>5192477106</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>2021-08-18 17:09:22</t>
-        </is>
+      <c r="H110" s="1" t="n">
+        <v>44426.71483796297</v>
       </c>
       <c r="I110" t="n">
         <v>1</v>
@@ -8444,10 +8242,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>2021-08-18 17:09:03</t>
-        </is>
+      <c r="H111" s="1" t="n">
+        <v>44426.71461805556</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
@@ -8523,10 +8319,8 @@
           <t>5191973083</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>2021-08-18 17:09:02</t>
-        </is>
+      <c r="H112" s="1" t="n">
+        <v>44426.71460648148</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
@@ -8590,10 +8384,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>2021-08-18 17:08:54</t>
-        </is>
+      <c r="H113" s="1" t="n">
+        <v>44426.71451388889</v>
       </c>
       <c r="I113" t="n">
         <v>1</v>
@@ -8669,10 +8461,8 @@
           <t>5192475384</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>2021-08-18 17:08:40</t>
-        </is>
+      <c r="H114" s="1" t="n">
+        <v>44426.71435185185</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
@@ -8752,10 +8542,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>2021-08-18 17:08:19</t>
-        </is>
+      <c r="H115" s="1" t="n">
+        <v>44426.7141087963</v>
       </c>
       <c r="I115" t="n">
         <v>135</v>
@@ -8831,10 +8619,8 @@
           <t>5192464338</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>2021-08-18 17:08:15</t>
-        </is>
+      <c r="H116" s="1" t="n">
+        <v>44426.7140625</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
@@ -8902,10 +8688,8 @@
           <t>5192244644</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>2021-08-18 17:08:07</t>
-        </is>
+      <c r="H117" s="1" t="n">
+        <v>44426.71396990741</v>
       </c>
       <c r="I117" t="n">
         <v>1</v>
@@ -8981,10 +8765,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>2021-08-18 17:06:55</t>
-        </is>
+      <c r="H118" s="1" t="n">
+        <v>44426.71313657407</v>
       </c>
       <c r="I118" t="n">
         <v>13</v>
@@ -9048,10 +8830,8 @@
           <t>5192294575</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>2021-08-18 17:06:27</t>
-        </is>
+      <c r="H119" s="1" t="n">
+        <v>44426.7128125</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
@@ -9119,10 +8899,8 @@
           <t>5192448426</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>2021-08-18 17:06:00</t>
-        </is>
+      <c r="H120" s="1" t="n">
+        <v>44426.7125</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
@@ -9186,10 +8964,8 @@
           <t>5192433966</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>2021-08-18 17:04:17</t>
-        </is>
+      <c r="H121" s="1" t="n">
+        <v>44426.71130787037</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
@@ -9253,10 +9029,8 @@
           <t>5192427167</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>2021-08-18 17:02:59</t>
-        </is>
+      <c r="H122" s="1" t="n">
+        <v>44426.71040509259</v>
       </c>
       <c r="I122" t="n">
         <v>1</v>
@@ -9332,10 +9106,8 @@
           <t>5192294575</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>2021-08-18 17:02:26</t>
-        </is>
+      <c r="H123" s="1" t="n">
+        <v>44426.71002314815</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
@@ -9411,10 +9183,8 @@
           <t>5192413625</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>2021-08-18 17:01:47</t>
-        </is>
+      <c r="H124" s="1" t="n">
+        <v>44426.70957175926</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
@@ -9482,10 +9252,8 @@
           <t>5192417120</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>2021-08-18 17:01:35</t>
-        </is>
+      <c r="H125" s="1" t="n">
+        <v>44426.70943287037</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
@@ -9549,10 +9317,8 @@
           <t>5191959271</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>2021-08-18 17:01:10</t>
-        </is>
+      <c r="H126" s="1" t="n">
+        <v>44426.70914351852</v>
       </c>
       <c r="I126" t="n">
         <v>1</v>
@@ -9624,10 +9390,8 @@
           <t>5192411758</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>2021-08-18 17:01:09</t>
-        </is>
+      <c r="H127" s="1" t="n">
+        <v>44426.70913194444</v>
       </c>
       <c r="I127" t="n">
         <v>1</v>
@@ -9691,10 +9455,8 @@
           <t>5192373603</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>2021-08-18 16:56:32</t>
-        </is>
+      <c r="H128" s="1" t="n">
+        <v>44426.70592592593</v>
       </c>
       <c r="I128" t="n">
         <v>3</v>
@@ -9770,10 +9532,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>2021-08-18 16:56:06</t>
-        </is>
+      <c r="H129" s="1" t="n">
+        <v>44426.705625</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
@@ -9849,10 +9609,8 @@
           <t>5192005627</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>2021-08-18 16:55:34</t>
-        </is>
+      <c r="H130" s="1" t="n">
+        <v>44426.70525462963</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
@@ -9930,10 +9688,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>2021-08-18 16:55:32</t>
-        </is>
+      <c r="H131" s="1" t="n">
+        <v>44426.70523148148</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
@@ -10009,10 +9765,8 @@
           <t>5192032136</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>2021-08-18 16:55:01</t>
-        </is>
+      <c r="H132" s="1" t="n">
+        <v>44426.70487268519</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
@@ -10084,10 +9838,8 @@
           <t>5192127178</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>2021-08-18 16:54:14</t>
-        </is>
+      <c r="H133" s="1" t="n">
+        <v>44426.7043287037</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
@@ -10155,10 +9907,8 @@
           <t>5192032136</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>2021-08-18 16:53:53</t>
-        </is>
+      <c r="H134" s="1" t="n">
+        <v>44426.70408564815</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
@@ -10230,10 +9980,8 @@
           <t>5192347525</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>2021-08-18 16:53:11</t>
-        </is>
+      <c r="H135" s="1" t="n">
+        <v>44426.70359953704</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
@@ -10301,10 +10049,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>2021-08-18 16:51:42</t>
-        </is>
+      <c r="H136" s="1" t="n">
+        <v>44426.70256944445</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
@@ -10372,10 +10118,8 @@
           <t>5192032136</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>2021-08-18 16:50:59</t>
-        </is>
+      <c r="H137" s="1" t="n">
+        <v>44426.70207175926</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
@@ -10447,10 +10191,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>2021-08-18 16:50:51</t>
-        </is>
+      <c r="H138" s="1" t="n">
+        <v>44426.70197916667</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
@@ -10526,10 +10268,8 @@
           <t>5192084604</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>2021-08-18 16:49:19</t>
-        </is>
+      <c r="H139" s="1" t="n">
+        <v>44426.70091435185</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
@@ -10601,10 +10341,8 @@
           <t>5192297878</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>2021-08-18 16:47:24</t>
-        </is>
+      <c r="H140" s="1" t="n">
+        <v>44426.69958333333</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
@@ -10668,10 +10406,8 @@
           <t>5192032136</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>2021-08-18 16:46:50</t>
-        </is>
+      <c r="H141" s="1" t="n">
+        <v>44426.69918981481</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
@@ -10735,10 +10471,8 @@
           <t>5192294575</t>
         </is>
       </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>2021-08-18 16:46:40</t>
-        </is>
+      <c r="H142" s="1" t="n">
+        <v>44426.69907407407</v>
       </c>
       <c r="I142" t="n">
         <v>1</v>
@@ -10806,10 +10540,8 @@
           <t>5192293859</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>2021-08-18 16:46:23</t>
-        </is>
+      <c r="H143" s="1" t="n">
+        <v>44426.69887731481</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
@@ -10873,10 +10605,8 @@
           <t>5192264523</t>
         </is>
       </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>2021-08-18 16:42:40</t>
-        </is>
+      <c r="H144" s="1" t="n">
+        <v>44426.69629629629</v>
       </c>
       <c r="I144" t="n">
         <v>2</v>
@@ -10952,10 +10682,8 @@
           <t>5192109111</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>2021-08-18 16:40:56</t>
-        </is>
+      <c r="H145" s="1" t="n">
+        <v>44426.69509259259</v>
       </c>
       <c r="I145" t="n">
         <v>1</v>
@@ -11032,10 +10760,8 @@
           <t>5192244644</t>
         </is>
       </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>2021-08-18 16:40:42</t>
-        </is>
+      <c r="H146" s="1" t="n">
+        <v>44426.69493055555</v>
       </c>
       <c r="I146" t="n">
         <v>7</v>
@@ -11103,10 +10829,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>2021-08-18 16:39:51</t>
-        </is>
+      <c r="H147" s="1" t="n">
+        <v>44426.69434027778</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
@@ -11170,10 +10894,8 @@
           <t>5191984711</t>
         </is>
       </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>2021-08-18 16:39:13</t>
-        </is>
+      <c r="H148" s="1" t="n">
+        <v>44426.69390046296</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
@@ -11241,10 +10963,8 @@
           <t>5192084604</t>
         </is>
       </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>2021-08-18 16:38:26</t>
-        </is>
+      <c r="H149" s="1" t="n">
+        <v>44426.69335648148</v>
       </c>
       <c r="I149" t="n">
         <v>2</v>
@@ -11312,10 +11032,8 @@
           <t>5192032136</t>
         </is>
       </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>2021-08-18 16:35:32</t>
-        </is>
+      <c r="H150" s="1" t="n">
+        <v>44426.6913425926</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
@@ -11387,10 +11105,8 @@
           <t>5191984711</t>
         </is>
       </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>2021-08-18 16:34:46</t>
-        </is>
+      <c r="H151" s="1" t="n">
+        <v>44426.69081018519</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
@@ -11458,10 +11174,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>2021-08-18 16:34:02</t>
-        </is>
+      <c r="H152" s="1" t="n">
+        <v>44426.69030092593</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
@@ -11525,10 +11239,8 @@
           <t>5192189358</t>
         </is>
       </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>2021-08-18 16:33:31</t>
-        </is>
+      <c r="H153" s="1" t="n">
+        <v>44426.68994212963</v>
       </c>
       <c r="I153" t="n">
         <v>1</v>
@@ -11592,10 +11304,8 @@
           <t>5192186489</t>
         </is>
       </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>2021-08-18 16:32:29</t>
-        </is>
+      <c r="H154" s="1" t="n">
+        <v>44426.68922453704</v>
       </c>
       <c r="I154" t="n">
         <v>1</v>
@@ -11655,10 +11365,8 @@
           <t>5191984711</t>
         </is>
       </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>2021-08-18 16:31:30</t>
-        </is>
+      <c r="H155" s="1" t="n">
+        <v>44426.68854166667</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
@@ -11726,10 +11434,8 @@
           <t>5192173619</t>
         </is>
       </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>2021-08-18 16:31:25</t>
-        </is>
+      <c r="H156" s="1" t="n">
+        <v>44426.68848379629</v>
       </c>
       <c r="I156" t="n">
         <v>1</v>
@@ -11801,10 +11507,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>2021-08-18 16:31:12</t>
-        </is>
+      <c r="H157" s="1" t="n">
+        <v>44426.68833333333</v>
       </c>
       <c r="I157" t="n">
         <v>4</v>
@@ -11872,10 +11576,8 @@
           <t>5192032136</t>
         </is>
       </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>2021-08-18 16:30:20</t>
-        </is>
+      <c r="H158" s="1" t="n">
+        <v>44426.68773148148</v>
       </c>
       <c r="I158" t="n">
         <v>1</v>
@@ -11951,10 +11653,8 @@
           <t>5192165384</t>
         </is>
       </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>2021-08-18 16:29:01</t>
-        </is>
+      <c r="H159" s="1" t="n">
+        <v>44426.68681712963</v>
       </c>
       <c r="I159" t="n">
         <v>2</v>
@@ -12018,10 +11718,8 @@
           <t>5192084604</t>
         </is>
       </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>2021-08-18 16:28:25</t>
-        </is>
+      <c r="H160" s="1" t="n">
+        <v>44426.68640046296</v>
       </c>
       <c r="I160" t="n">
         <v>1</v>
@@ -12097,10 +11795,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>2021-08-18 16:28:24</t>
-        </is>
+      <c r="H161" s="1" t="n">
+        <v>44426.68638888889</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
@@ -12176,10 +11872,8 @@
           <t>5192032136</t>
         </is>
       </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>2021-08-18 16:28:15</t>
-        </is>
+      <c r="H162" s="1" t="n">
+        <v>44426.68628472222</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
@@ -12251,10 +11945,8 @@
           <t>5192148420</t>
         </is>
       </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>2021-08-18 16:27:57</t>
-        </is>
+      <c r="H163" s="1" t="n">
+        <v>44426.68607638889</v>
       </c>
       <c r="I163" t="n">
         <v>1</v>
@@ -12326,10 +12018,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>2021-08-18 16:27:31</t>
-        </is>
+      <c r="H164" s="1" t="n">
+        <v>44426.68577546296</v>
       </c>
       <c r="I164" t="n">
         <v>1</v>
@@ -12401,10 +12091,8 @@
           <t>5192032136</t>
         </is>
       </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>2021-08-18 16:27:17</t>
-        </is>
+      <c r="H165" s="1" t="n">
+        <v>44426.68561342593</v>
       </c>
       <c r="I165" t="n">
         <v>1</v>
@@ -12476,10 +12164,8 @@
           <t>5192128986</t>
         </is>
       </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>2021-08-18 16:26:04</t>
-        </is>
+      <c r="H166" s="1" t="n">
+        <v>44426.68476851852</v>
       </c>
       <c r="I166" t="n">
         <v>0</v>
@@ -12551,10 +12237,8 @@
           <t>5192127593</t>
         </is>
       </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>2021-08-18 16:25:31</t>
-        </is>
+      <c r="H167" s="1" t="n">
+        <v>44426.68438657407</v>
       </c>
       <c r="I167" t="n">
         <v>0</v>
@@ -12630,10 +12314,8 @@
           <t>5192127178</t>
         </is>
       </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>2021-08-18 16:25:21</t>
-        </is>
+      <c r="H168" s="1" t="n">
+        <v>44426.68427083334</v>
       </c>
       <c r="I168" t="n">
         <v>2</v>
@@ -12697,10 +12379,8 @@
           <t>5192084604</t>
         </is>
       </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>2021-08-18 16:25:19</t>
-        </is>
+      <c r="H169" s="1" t="n">
+        <v>44426.68424768518</v>
       </c>
       <c r="I169" t="n">
         <v>1</v>
@@ -12772,10 +12452,8 @@
           <t>5192032136</t>
         </is>
       </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>2021-08-18 16:24:07</t>
-        </is>
+      <c r="H170" s="1" t="n">
+        <v>44426.68341435185</v>
       </c>
       <c r="I170" t="n">
         <v>2</v>
@@ -12852,10 +12530,8 @@
           <t>5192122971</t>
         </is>
       </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>2021-08-18 16:24:07</t>
-        </is>
+      <c r="H171" s="1" t="n">
+        <v>44426.68341435185</v>
       </c>
       <c r="I171" t="n">
         <v>0</v>
@@ -12931,10 +12607,8 @@
           <t>5192113089</t>
         </is>
       </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>2021-08-18 16:23:42</t>
-        </is>
+      <c r="H172" s="1" t="n">
+        <v>44426.683125</v>
       </c>
       <c r="I172" t="n">
         <v>11</v>
@@ -13010,10 +12684,8 @@
           <t>5192031330</t>
         </is>
       </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>2021-08-18 16:23:35</t>
-        </is>
+      <c r="H173" s="1" t="n">
+        <v>44426.68304398148</v>
       </c>
       <c r="I173" t="n">
         <v>1</v>
@@ -13073,10 +12745,8 @@
           <t>5192109111</t>
         </is>
       </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>2021-08-18 16:22:34</t>
-        </is>
+      <c r="H174" s="1" t="n">
+        <v>44426.68233796296</v>
       </c>
       <c r="I174" t="n">
         <v>3</v>
@@ -13140,10 +12810,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>2021-08-18 16:22:33</t>
-        </is>
+      <c r="H175" s="1" t="n">
+        <v>44426.68232638889</v>
       </c>
       <c r="I175" t="n">
         <v>0</v>
@@ -13219,10 +12887,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>2021-08-18 16:22:02</t>
-        </is>
+      <c r="H176" s="1" t="n">
+        <v>44426.68196759259</v>
       </c>
       <c r="I176" t="n">
         <v>0</v>
@@ -13298,10 +12964,8 @@
           <t>5192098257</t>
         </is>
       </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>2021-08-18 16:21:43</t>
-        </is>
+      <c r="H177" s="1" t="n">
+        <v>44426.68174768519</v>
       </c>
       <c r="I177" t="n">
         <v>0</v>
@@ -13377,10 +13041,8 @@
           <t>5192106601</t>
         </is>
       </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>2021-08-18 16:21:34</t>
-        </is>
+      <c r="H178" s="1" t="n">
+        <v>44426.68164351852</v>
       </c>
       <c r="I178" t="n">
         <v>0</v>
@@ -13444,10 +13106,8 @@
           <t>5191984711</t>
         </is>
       </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>2021-08-18 16:20:57</t>
-        </is>
+      <c r="H179" s="1" t="n">
+        <v>44426.68121527778</v>
       </c>
       <c r="I179" t="n">
         <v>4</v>
@@ -13515,10 +13175,8 @@
           <t>5192100083</t>
         </is>
       </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>2021-08-18 16:20:56</t>
-        </is>
+      <c r="H180" s="1" t="n">
+        <v>44426.6812037037</v>
       </c>
       <c r="I180" t="n">
         <v>0</v>
@@ -13594,10 +13252,8 @@
           <t>5192032136</t>
         </is>
       </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>2021-08-18 16:20:30</t>
-        </is>
+      <c r="H181" s="1" t="n">
+        <v>44426.68090277778</v>
       </c>
       <c r="I181" t="n">
         <v>0</v>
@@ -13665,10 +13321,8 @@
           <t>5192084604</t>
         </is>
       </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>2021-08-18 16:20:12</t>
-        </is>
+      <c r="H182" s="1" t="n">
+        <v>44426.68069444445</v>
       </c>
       <c r="I182" t="n">
         <v>5</v>
@@ -13732,10 +13386,8 @@
           <t>5192005627</t>
         </is>
       </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>2021-08-18 16:20:10</t>
-        </is>
+      <c r="H183" s="1" t="n">
+        <v>44426.68067129629</v>
       </c>
       <c r="I183" t="n">
         <v>0</v>
@@ -13807,10 +13459,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>2021-08-18 16:19:14</t>
-        </is>
+      <c r="H184" s="1" t="n">
+        <v>44426.68002314815</v>
       </c>
       <c r="I184" t="n">
         <v>6</v>
@@ -13882,10 +13532,8 @@
           <t>5192005627</t>
         </is>
       </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>2021-08-18 16:18:32</t>
-        </is>
+      <c r="H185" s="1" t="n">
+        <v>44426.67953703704</v>
       </c>
       <c r="I185" t="n">
         <v>0</v>
@@ -13953,10 +13601,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>2021-08-18 16:16:35</t>
-        </is>
+      <c r="H186" s="1" t="n">
+        <v>44426.67818287037</v>
       </c>
       <c r="I186" t="n">
         <v>1</v>
@@ -14028,10 +13674,8 @@
           <t>5192054230</t>
         </is>
       </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>2021-08-18 16:15:50</t>
-        </is>
+      <c r="H187" s="1" t="n">
+        <v>44426.67766203704</v>
       </c>
       <c r="I187" t="n">
         <v>0</v>
@@ -14103,10 +13747,8 @@
           <t>5192061170</t>
         </is>
       </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>2021-08-18 16:15:47</t>
-        </is>
+      <c r="H188" s="1" t="n">
+        <v>44426.67762731481</v>
       </c>
       <c r="I188" t="n">
         <v>0</v>
@@ -14183,10 +13825,8 @@
           <t>5192053956</t>
         </is>
       </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>2021-08-18 16:15:43</t>
-        </is>
+      <c r="H189" s="1" t="n">
+        <v>44426.67758101852</v>
       </c>
       <c r="I189" t="n">
         <v>0</v>
@@ -14246,10 +13886,8 @@
           <t>5192055740</t>
         </is>
       </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>2021-08-18 16:15:16</t>
-        </is>
+      <c r="H190" s="1" t="n">
+        <v>44426.67726851852</v>
       </c>
       <c r="I190" t="n">
         <v>4</v>
@@ -14317,10 +13955,8 @@
           <t>5192044753</t>
         </is>
       </c>
-      <c r="H191" t="inlineStr">
-        <is>
-          <t>2021-08-18 16:14:53</t>
-        </is>
+      <c r="H191" s="1" t="n">
+        <v>44426.67700231481</v>
       </c>
       <c r="I191" t="n">
         <v>0</v>
@@ -14392,10 +14028,8 @@
           <t>5192032136</t>
         </is>
       </c>
-      <c r="H192" t="inlineStr">
-        <is>
-          <t>2021-08-18 16:13:46</t>
-        </is>
+      <c r="H192" s="1" t="n">
+        <v>44426.67622685185</v>
       </c>
       <c r="I192" t="n">
         <v>0</v>
@@ -14459,10 +14093,8 @@
           <t>5192034474</t>
         </is>
       </c>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>2021-08-18 16:13:21</t>
-        </is>
+      <c r="H193" s="1" t="n">
+        <v>44426.6759375</v>
       </c>
       <c r="I193" t="n">
         <v>0</v>
@@ -14534,10 +14166,8 @@
           <t>5192005627</t>
         </is>
       </c>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>2021-08-18 16:12:42</t>
-        </is>
+      <c r="H194" s="1" t="n">
+        <v>44426.67548611111</v>
       </c>
       <c r="I194" t="n">
         <v>0</v>
@@ -14609,10 +14239,8 @@
           <t>5192032136</t>
         </is>
       </c>
-      <c r="H195" t="inlineStr">
-        <is>
-          <t>2021-08-18 16:12:27</t>
-        </is>
+      <c r="H195" s="1" t="n">
+        <v>44426.6753125</v>
       </c>
       <c r="I195" t="n">
         <v>16</v>
@@ -14689,10 +14317,8 @@
           <t>5192031330</t>
         </is>
       </c>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>2021-08-18 16:12:09</t>
-        </is>
+      <c r="H196" s="1" t="n">
+        <v>44426.67510416666</v>
       </c>
       <c r="I196" t="n">
         <v>3</v>
@@ -14768,10 +14394,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>2021-08-18 16:11:40</t>
-        </is>
+      <c r="H197" s="1" t="n">
+        <v>44426.67476851852</v>
       </c>
       <c r="I197" t="n">
         <v>0</v>
@@ -14843,10 +14467,8 @@
           <t>5192019741</t>
         </is>
       </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>2021-08-18 16:11:33</t>
-        </is>
+      <c r="H198" s="1" t="n">
+        <v>44426.6746875</v>
       </c>
       <c r="I198" t="n">
         <v>0</v>
@@ -14922,10 +14544,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>2021-08-18 16:11:06</t>
-        </is>
+      <c r="H199" s="1" t="n">
+        <v>44426.674375</v>
       </c>
       <c r="I199" t="n">
         <v>291</v>
@@ -14993,10 +14613,8 @@
           <t>5192011925</t>
         </is>
       </c>
-      <c r="H200" t="inlineStr">
-        <is>
-          <t>2021-08-18 16:09:42</t>
-        </is>
+      <c r="H200" s="1" t="n">
+        <v>44426.67340277778</v>
       </c>
       <c r="I200" t="n">
         <v>1</v>
@@ -15068,10 +14686,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>2021-08-18 16:09:26</t>
-        </is>
+      <c r="H201" s="1" t="n">
+        <v>44426.67321759259</v>
       </c>
       <c r="I201" t="n">
         <v>0</v>
@@ -15139,10 +14755,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H202" t="inlineStr">
-        <is>
-          <t>2021-08-18 16:09:13</t>
-        </is>
+      <c r="H202" s="1" t="n">
+        <v>44426.67306712963</v>
       </c>
       <c r="I202" t="n">
         <v>0</v>
@@ -15212,10 +14826,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t>2021-08-18 16:09:11</t>
-        </is>
+      <c r="H203" s="1" t="n">
+        <v>44426.67304398148</v>
       </c>
       <c r="I203" t="n">
         <v>0</v>
@@ -15284,10 +14896,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t>2021-08-18 16:09:00</t>
-        </is>
+      <c r="H204" s="1" t="n">
+        <v>44426.67291666667</v>
       </c>
       <c r="I204" t="n">
         <v>2</v>
@@ -15355,10 +14965,8 @@
           <t>5192001930</t>
         </is>
       </c>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>2021-08-18 16:08:33</t>
-        </is>
+      <c r="H205" s="1" t="n">
+        <v>44426.67260416667</v>
       </c>
       <c r="I205" t="n">
         <v>0</v>
@@ -15434,10 +15042,8 @@
           <t>5192005627</t>
         </is>
       </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>2021-08-18 16:08:07</t>
-        </is>
+      <c r="H206" s="1" t="n">
+        <v>44426.67230324074</v>
       </c>
       <c r="I206" t="n">
         <v>2</v>
@@ -15505,10 +15111,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>2021-08-18 16:08:01</t>
-        </is>
+      <c r="H207" s="1" t="n">
+        <v>44426.67223379629</v>
       </c>
       <c r="I207" t="n">
         <v>0</v>
@@ -15576,10 +15180,8 @@
           <t>5191975634</t>
         </is>
       </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>2021-08-18 16:08:01</t>
-        </is>
+      <c r="H208" s="1" t="n">
+        <v>44426.67223379629</v>
       </c>
       <c r="I208" t="n">
         <v>8</v>
@@ -15643,10 +15245,8 @@
           <t>5191995969</t>
         </is>
       </c>
-      <c r="H209" t="inlineStr">
-        <is>
-          <t>2021-08-18 16:07:15</t>
-        </is>
+      <c r="H209" s="1" t="n">
+        <v>44426.67170138889</v>
       </c>
       <c r="I209" t="n">
         <v>0</v>
@@ -15718,10 +15318,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H210" t="inlineStr">
-        <is>
-          <t>2021-08-18 16:06:54</t>
-        </is>
+      <c r="H210" s="1" t="n">
+        <v>44426.67145833333</v>
       </c>
       <c r="I210" t="n">
         <v>1</v>
@@ -15789,10 +15387,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>2021-08-18 16:06:47</t>
-        </is>
+      <c r="H211" s="1" t="n">
+        <v>44426.67137731481</v>
       </c>
       <c r="I211" t="n">
         <v>2</v>
@@ -15871,10 +15467,8 @@
           <t>5191984711</t>
         </is>
       </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>2021-08-18 16:06:45</t>
-        </is>
+      <c r="H212" s="1" t="n">
+        <v>44426.67135416667</v>
       </c>
       <c r="I212" t="n">
         <v>1</v>
@@ -15942,10 +15536,8 @@
           <t>5191983934</t>
         </is>
       </c>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>2021-08-18 16:06:26</t>
-        </is>
+      <c r="H213" s="1" t="n">
+        <v>44426.67113425926</v>
       </c>
       <c r="I213" t="n">
         <v>0</v>
@@ -16013,10 +15605,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>2021-08-18 16:06:24</t>
-        </is>
+      <c r="H214" s="1" t="n">
+        <v>44426.67111111111</v>
       </c>
       <c r="I214" t="n">
         <v>2</v>
@@ -16088,10 +15678,8 @@
           <t>5191975634</t>
         </is>
       </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>2021-08-18 16:06:17</t>
-        </is>
+      <c r="H215" s="1" t="n">
+        <v>44426.67103009259</v>
       </c>
       <c r="I215" t="n">
         <v>28</v>
@@ -16163,10 +15751,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>2021-08-18 16:06:13</t>
-        </is>
+      <c r="H216" s="1" t="n">
+        <v>44426.6709837963</v>
       </c>
       <c r="I216" t="n">
         <v>0</v>
@@ -16238,10 +15824,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>2021-08-18 16:05:51</t>
-        </is>
+      <c r="H217" s="1" t="n">
+        <v>44426.67072916667</v>
       </c>
       <c r="I217" t="n">
         <v>0</v>
@@ -16309,10 +15893,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>2021-08-18 16:05:50</t>
-        </is>
+      <c r="H218" s="1" t="n">
+        <v>44426.67071759259</v>
       </c>
       <c r="I218" t="n">
         <v>2</v>
@@ -16388,10 +15970,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>2021-08-18 16:05:34</t>
-        </is>
+      <c r="H219" s="1" t="n">
+        <v>44426.67053240741</v>
       </c>
       <c r="I219" t="n">
         <v>0</v>
@@ -16467,10 +16047,8 @@
           <t>5191978979</t>
         </is>
       </c>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t>2021-08-18 16:05:29</t>
-        </is>
+      <c r="H220" s="1" t="n">
+        <v>44426.67047453704</v>
       </c>
       <c r="I220" t="n">
         <v>1</v>
@@ -16546,10 +16124,8 @@
           <t>5191977997</t>
         </is>
       </c>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>2021-08-18 16:05:06</t>
-        </is>
+      <c r="H221" s="1" t="n">
+        <v>44426.67020833334</v>
       </c>
       <c r="I221" t="n">
         <v>0</v>
@@ -16613,10 +16189,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H222" t="inlineStr">
-        <is>
-          <t>2021-08-18 16:05:04</t>
-        </is>
+      <c r="H222" s="1" t="n">
+        <v>44426.67018518518</v>
       </c>
       <c r="I222" t="n">
         <v>0</v>
@@ -16680,10 +16254,8 @@
           <t>5191973661</t>
         </is>
       </c>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>2021-08-18 16:05:00</t>
-        </is>
+      <c r="H223" s="1" t="n">
+        <v>44426.67013888889</v>
       </c>
       <c r="I223" t="n">
         <v>0</v>
@@ -16743,10 +16315,8 @@
           <t>5191973582</t>
         </is>
       </c>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>2021-08-18 16:04:58</t>
-        </is>
+      <c r="H224" s="1" t="n">
+        <v>44426.67011574074</v>
       </c>
       <c r="I224" t="n">
         <v>5</v>
@@ -16822,10 +16392,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>2021-08-18 16:04:55</t>
-        </is>
+      <c r="H225" s="1" t="n">
+        <v>44426.67008101852</v>
       </c>
       <c r="I225" t="n">
         <v>1</v>
@@ -16894,10 +16462,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H226" t="inlineStr">
-        <is>
-          <t>2021-08-18 16:04:48</t>
-        </is>
+      <c r="H226" s="1" t="n">
+        <v>44426.67</v>
       </c>
       <c r="I226" t="n">
         <v>13</v>
@@ -16965,10 +16531,8 @@
           <t>5191973228</t>
         </is>
       </c>
-      <c r="H227" t="inlineStr">
-        <is>
-          <t>2021-08-18 16:04:48</t>
-        </is>
+      <c r="H227" s="1" t="n">
+        <v>44426.67</v>
       </c>
       <c r="I227" t="n">
         <v>0</v>
@@ -17047,10 +16611,8 @@
           <t>5191973083</t>
         </is>
       </c>
-      <c r="H228" t="inlineStr">
-        <is>
-          <t>2021-08-18 16:04:44</t>
-        </is>
+      <c r="H228" s="1" t="n">
+        <v>44426.66995370371</v>
       </c>
       <c r="I228" t="n">
         <v>6</v>
@@ -17122,10 +16684,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H229" t="inlineStr">
-        <is>
-          <t>2021-08-18 16:04:37</t>
-        </is>
+      <c r="H229" s="1" t="n">
+        <v>44426.66987268518</v>
       </c>
       <c r="I229" t="n">
         <v>0</v>
@@ -17201,10 +16761,8 @@
           <t>5191975634</t>
         </is>
       </c>
-      <c r="H230" t="inlineStr">
-        <is>
-          <t>2021-08-18 16:04:12</t>
-        </is>
+      <c r="H230" s="1" t="n">
+        <v>44426.66958333334</v>
       </c>
       <c r="I230" t="n">
         <v>28</v>
@@ -17272,10 +16830,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H231" t="inlineStr">
-        <is>
-          <t>2021-08-18 16:04:06</t>
-        </is>
+      <c r="H231" s="1" t="n">
+        <v>44426.66951388889</v>
       </c>
       <c r="I231" t="n">
         <v>1</v>
@@ -17339,10 +16895,8 @@
           <t>5191967883</t>
         </is>
       </c>
-      <c r="H232" t="inlineStr">
-        <is>
-          <t>2021-08-18 16:03:53</t>
-        </is>
+      <c r="H232" s="1" t="n">
+        <v>44426.66936342593</v>
       </c>
       <c r="I232" t="n">
         <v>1</v>
@@ -17418,10 +16972,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H233" t="inlineStr">
-        <is>
-          <t>2021-08-18 16:03:52</t>
-        </is>
+      <c r="H233" s="1" t="n">
+        <v>44426.66935185185</v>
       </c>
       <c r="I233" t="n">
         <v>112</v>
@@ -17547,10 +17099,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H234" t="inlineStr">
-        <is>
-          <t>2021-08-18 16:03:47</t>
-        </is>
+      <c r="H234" s="1" t="n">
+        <v>44426.66929398148</v>
       </c>
       <c r="I234" t="n">
         <v>4</v>
@@ -17628,10 +17178,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H235" t="inlineStr">
-        <is>
-          <t>2021-08-18 16:03:41</t>
-        </is>
+      <c r="H235" s="1" t="n">
+        <v>44426.66922453704</v>
       </c>
       <c r="I235" t="n">
         <v>19</v>
@@ -17699,10 +17247,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H236" t="inlineStr">
-        <is>
-          <t>2021-08-18 16:03:35</t>
-        </is>
+      <c r="H236" s="1" t="n">
+        <v>44426.66915509259</v>
       </c>
       <c r="I236" t="n">
         <v>0</v>
@@ -17778,10 +17324,8 @@
           <t>5191964047</t>
         </is>
       </c>
-      <c r="H237" t="inlineStr">
-        <is>
-          <t>2021-08-18 16:03:35</t>
-        </is>
+      <c r="H237" s="1" t="n">
+        <v>44426.66915509259</v>
       </c>
       <c r="I237" t="n">
         <v>1</v>
@@ -17845,10 +17389,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H238" t="inlineStr">
-        <is>
-          <t>2021-08-18 16:03:14</t>
-        </is>
+      <c r="H238" s="1" t="n">
+        <v>44426.66891203704</v>
       </c>
       <c r="I238" t="n">
         <v>869</v>
@@ -17916,10 +17458,8 @@
           <t>5191959455</t>
         </is>
       </c>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>2021-08-18 16:03:11</t>
-        </is>
+      <c r="H239" s="1" t="n">
+        <v>44426.66887731481</v>
       </c>
       <c r="I239" t="n">
         <v>1</v>
@@ -17998,10 +17538,8 @@
           <t>5191959271</t>
         </is>
       </c>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>2021-08-18 16:03:06</t>
-        </is>
+      <c r="H240" s="1" t="n">
+        <v>44426.66881944444</v>
       </c>
       <c r="I240" t="n">
         <v>8</v>
@@ -18077,10 +17615,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H241" t="inlineStr">
-        <is>
-          <t>2021-08-18 16:02:56</t>
-        </is>
+      <c r="H241" s="1" t="n">
+        <v>44426.6687037037</v>
       </c>
       <c r="I241" t="n">
         <v>0</v>
@@ -18169,10 +17705,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H242" t="inlineStr">
-        <is>
-          <t>2021-08-18 16:02:13</t>
-        </is>
+      <c r="H242" s="1" t="n">
+        <v>44426.66820601852</v>
       </c>
       <c r="I242" t="n">
         <v>9</v>
@@ -18240,10 +17774,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H243" t="inlineStr">
-        <is>
-          <t>2021-08-18 16:02:05</t>
-        </is>
+      <c r="H243" s="1" t="n">
+        <v>44426.66811342593</v>
       </c>
       <c r="I243" t="n">
         <v>0</v>
@@ -18319,10 +17851,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H244" t="inlineStr">
-        <is>
-          <t>2021-08-18 16:01:39</t>
-        </is>
+      <c r="H244" s="1" t="n">
+        <v>44426.6678125</v>
       </c>
       <c r="I244" t="n">
         <v>0</v>
@@ -18398,10 +17928,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H245" t="inlineStr">
-        <is>
-          <t>2021-08-18 16:01:35</t>
-        </is>
+      <c r="H245" s="1" t="n">
+        <v>44426.6677662037</v>
       </c>
       <c r="I245" t="n">
         <v>266</v>
@@ -18473,10 +18001,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H246" t="inlineStr">
-        <is>
-          <t>2021-08-18 16:01:25</t>
-        </is>
+      <c r="H246" s="1" t="n">
+        <v>44426.66765046296</v>
       </c>
       <c r="I246" t="n">
         <v>0</v>
@@ -18540,10 +18066,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H247" t="inlineStr">
-        <is>
-          <t>2021-08-18 16:01:23</t>
-        </is>
+      <c r="H247" s="1" t="n">
+        <v>44426.66762731481</v>
       </c>
       <c r="I247" t="n">
         <v>1</v>
@@ -18619,10 +18143,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H248" t="inlineStr">
-        <is>
-          <t>2021-08-18 16:01:13</t>
-        </is>
+      <c r="H248" s="1" t="n">
+        <v>44426.66751157407</v>
       </c>
       <c r="I248" t="n">
         <v>16</v>
@@ -18698,10 +18220,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H249" t="inlineStr">
-        <is>
-          <t>2021-08-18 16:01:09</t>
-        </is>
+      <c r="H249" s="1" t="n">
+        <v>44426.66746527778</v>
       </c>
       <c r="I249" t="n">
         <v>0</v>
@@ -18765,10 +18285,8 @@
           <t>5191947731</t>
         </is>
       </c>
-      <c r="H250" t="inlineStr">
-        <is>
-          <t>2021-08-18 16:01:06</t>
-        </is>
+      <c r="H250" s="1" t="n">
+        <v>44426.66743055556</v>
       </c>
       <c r="I250" t="n">
         <v>1</v>
@@ -18844,10 +18362,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H251" t="inlineStr">
-        <is>
-          <t>2021-08-18 16:00:52</t>
-        </is>
+      <c r="H251" s="1" t="n">
+        <v>44426.66726851852</v>
       </c>
       <c r="I251" t="n">
         <v>44</v>
@@ -18923,10 +18439,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H252" t="inlineStr">
-        <is>
-          <t>2021-08-18 16:00:42</t>
-        </is>
+      <c r="H252" s="1" t="n">
+        <v>44426.66715277778</v>
       </c>
       <c r="I252" t="n">
         <v>2</v>
@@ -18994,10 +18508,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H253" t="inlineStr">
-        <is>
-          <t>2021-08-18 16:00:41</t>
-        </is>
+      <c r="H253" s="1" t="n">
+        <v>44426.6671412037</v>
       </c>
       <c r="I253" t="n">
         <v>1</v>
@@ -19073,10 +18585,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H254" t="inlineStr">
-        <is>
-          <t>2021-08-18 16:00:40</t>
-        </is>
+      <c r="H254" s="1" t="n">
+        <v>44426.66712962963</v>
       </c>
       <c r="I254" t="n">
         <v>1</v>
@@ -19152,10 +18662,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H255" t="inlineStr">
-        <is>
-          <t>2021-08-18 16:00:35</t>
-        </is>
+      <c r="H255" s="1" t="n">
+        <v>44426.66707175926</v>
       </c>
       <c r="I255" t="n">
         <v>0</v>
@@ -19227,10 +18735,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H256" t="inlineStr">
-        <is>
-          <t>2021-08-18 16:00:33</t>
-        </is>
+      <c r="H256" s="1" t="n">
+        <v>44426.66704861111</v>
       </c>
       <c r="I256" t="n">
         <v>1</v>
